--- a/results_metrics/results_punctual.xlsx
+++ b/results_metrics/results_punctual.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,10 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,49 +441,60 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="221" customWidth="1" min="2" max="2"/>
+    <col width="1047" customWidth="1" min="3" max="3"/>
+    <col width="255" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>original_text</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>zh_en</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>en_zh</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>BLEU</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>BLEU-Unif</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>CHRF</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TER</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Semantic Sim</t>
         </is>
